--- a/public/stomzn48.ru/download/price.xlsx
+++ b/public/stomzn48.ru/download/price.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -723,12 +723,6 @@
     <t>Профгигиена полости рта с использованием системы Air-Flow</t>
   </si>
   <si>
-    <t>12.13.2.1.</t>
-  </si>
-  <si>
-    <t>Профгигиена полости рта с использованием системы Air-Flow (акция)</t>
-  </si>
-  <si>
     <t>12.13.3.</t>
   </si>
   <si>
@@ -751,6 +745,12 @@
   </si>
   <si>
     <t xml:space="preserve">Шлифовка /полировка  одного квадранта (6-8 зубов) </t>
+  </si>
+  <si>
+    <t>12.13.5.2.</t>
+  </si>
+  <si>
+    <t>Удаление зубного камня с использованием ультразвука</t>
   </si>
   <si>
     <t>12.13.6.</t>
@@ -1426,7 +1426,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="[$-419]0.00"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1435,13 +1438,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1476,16 +1505,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Excel Built-in Normal" xfId="2"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="3"/>
+    <cellStyle name="Обычный 2 2" xfId="4"/>
+    <cellStyle name="Обычный 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1787,14 +1823,14 @@
   <dimension ref="A1:C236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="114.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="115.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1861,7 +1897,7 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1"/>
@@ -3029,7 +3065,7 @@
       <c r="A115" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C115" s="1"/>
@@ -3075,7 +3111,7 @@
         <v>236</v>
       </c>
       <c r="C119" s="1">
-        <v>2450</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3086,7 +3122,7 @@
         <v>238</v>
       </c>
       <c r="C120" s="1">
-        <v>250</v>
+        <v>850</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -3097,7 +3133,7 @@
         <v>240</v>
       </c>
       <c r="C121" s="1">
-        <v>850</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -3108,7 +3144,7 @@
         <v>242</v>
       </c>
       <c r="C122" s="1">
-        <v>2200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -3119,7 +3155,7 @@
         <v>244</v>
       </c>
       <c r="C123" s="1">
-        <v>800</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -3152,7 +3188,7 @@
         <v>250</v>
       </c>
       <c r="C126" s="1">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -3280,7 +3316,7 @@
       <c r="A138" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="1" t="s">
         <v>274</v>
       </c>
       <c r="C138" s="1"/>
@@ -4028,7 +4064,7 @@
       <c r="A208" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="1" t="s">
         <v>414</v>
       </c>
       <c r="C208" s="1"/>
@@ -4333,7 +4369,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
